--- a/test..xlsx
+++ b/test..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\pr0gr\StudioProjects\MyDungeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F618A73D-8B94-4947-A82D-27952D6D1721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA7441F-7669-4A0D-9B83-AC5BEECEEC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" tabRatio="259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>モンスター</t>
     <phoneticPr fontId="18"/>
@@ -290,6 +290,70 @@
     <t>アイテム費用(お金)</t>
     <rPh sb="8" eb="9">
       <t>カネ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>階層追加</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>部屋追加</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>壁配置</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HP回復薬</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MP回復薬</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>防具</t>
+    <rPh sb="0" eb="2">
+      <t>ボウグ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1251,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1354,6 +1418,33 @@
       <c r="Y2" t="s">
         <v>11</v>
       </c>
+      <c r="AA2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="AA3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="AA4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="AC5" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/test..xlsx
+++ b/test..xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\pr0gr\StudioProjects\MyDungeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA7441F-7669-4A0D-9B83-AC5BEECEEC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2881F3-672A-4E18-AC7C-FD424F23D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" tabRatio="259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="sub" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +109,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>召喚時に現れる確率
+          <t>召喚時に現れる確率（基本的にランク依存）
 費やすDPに応じて補正</t>
         </r>
       </text>
@@ -112,7 +125,8 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>召喚時に必要なDP</t>
+          <t>召喚時に必要なDP
+ガチャではなく．確実に召喚する．</t>
         </r>
       </text>
     </comment>
@@ -196,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>モンスター</t>
     <phoneticPr fontId="18"/>
@@ -354,6 +368,56 @@
     <t>防具</t>
     <rPh sb="0" eb="2">
       <t>ボウグ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>効果</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スライム</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ランク</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>出現率</t>
+    <rPh sb="0" eb="3">
+      <t>シュツゲンリツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>モンスター出現率</t>
+    <rPh sb="5" eb="8">
+      <t>シュツゲンリツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>敵出現率</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>シュツゲンリツ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1315,20 +1379,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="27" max="27" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="15.875" customWidth="1"/>
-    <col min="31" max="31" width="16.875" customWidth="1"/>
+    <col min="27" max="29" width="14.5" customWidth="1"/>
+    <col min="31" max="31" width="15.875" customWidth="1"/>
+    <col min="33" max="33" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1338,14 +1402,14 @@
       <c r="AA1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1419,31 +1483,113 @@
         <v>11</v>
       </c>
       <c r="AA2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f xml:space="preserve"> IF(B3=sub!$A$3,sub!$B$3, IF(B3=sub!$A$4, sub!$B$4, IF(B3=sub!$A$5, sub!$B$5, IF(B3=sub!$A$6, sub!$B$6, IF(B3=sub!$A$7, sub!$B$7,0 )))))</f>
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f xml:space="preserve"> IF(O3=sub!$D$3,sub!$E$3, IF(O3=sub!$D$4, sub!$E$4, IF(O3=sub!$D$5, sub!$E$5, IF(O3=sub!$D$6, sub!$E$6, IF(O3=sub!$D$7, sub!$E$7,0 )))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="AA3" t="s">
+    <row r="4" spans="1:33">
+      <c r="C4">
+        <f xml:space="preserve"> IF(B4=sub!$A$3,sub!$B$3, IF(B4=sub!$A$4, sub!$B$4, IF(B4=sub!$A$5, sub!$B$5, IF(B4=sub!$A$6, sub!$B$6, IF(B4=sub!$A$7, sub!$B$7,0 )))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="AA4" t="s">
+    <row r="5" spans="1:33">
+      <c r="C5">
+        <f xml:space="preserve"> IF(B5=sub!$A$3,sub!$B$3, IF(B5=sub!$A$4, sub!$B$4, IF(B5=sub!$A$5, sub!$B$5, IF(B5=sub!$A$6, sub!$B$6, IF(B5=sub!$A$7, sub!$B$7,0 )))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
         <v>20</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="AC5" t="s">
+    <row r="6" spans="1:33">
+      <c r="C6">
+        <f xml:space="preserve"> IF(B6=sub!$A$3,sub!$B$3, IF(B6=sub!$A$4, sub!$B$4, IF(B6=sub!$A$5, sub!$B$5, IF(B6=sub!$A$6, sub!$B$6, IF(B6=sub!$A$7, sub!$B$7,0 )))))</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="C7">
+        <f xml:space="preserve"> IF(B7=sub!$A$3,sub!$B$3, IF(B7=sub!$A$4, sub!$B$4, IF(B7=sub!$A$5, sub!$B$5, IF(B7=sub!$A$6, sub!$B$6, IF(B7=sub!$A$7, sub!$B$7,0 )))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="C8">
+        <f xml:space="preserve"> IF(B8=sub!$A$3,sub!$B$3, IF(B8=sub!$A$4, sub!$B$4, IF(B8=sub!$A$5, sub!$B$5, IF(B8=sub!$A$6, sub!$B$6, IF(B8=sub!$A$7, sub!$B$7,0 )))))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1452,4 +1598,122 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAD8FDD-F3AD-4BD6-8CF0-799C63DCF59F}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <f>SUM(B3:B7)</f>
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E3:E7)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test..xlsx
+++ b/test..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\pr0gr\StudioProjects\MyDungeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2881F3-672A-4E18-AC7C-FD424F23D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1EA704-4A95-4E2C-9FEC-8635AA62F38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" tabRatio="259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="sub" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test!$A$2:$L$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -205,12 +208,207 @@
         </r>
       </text>
     </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{5DDD3D89-9369-4B71-8504-2E0F6A24727C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR0mj1VOO7Y1IWybVOvhZWCmtLFx9MW9JNQ4dd4fXwjxrS5XAdL&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{69C9A7E3-B0C5-49B8-AFB2-7BC4315AB077}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQOeqTaB4CNVacaSkyxR9JiC4wYje5Ti-9zdmqGRHM5Hcnh6k7A&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{55492D03-F5E5-4511-96E0-D4D769A4B718}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS61HEtItUGKfqH45clVjZQytK4CDpiZLrv3CzoYBbD_NT2VTTz&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{41B09945-A9D1-4B52-996A-E3CE6A0487EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR3xfDxsRDxf0LgHHVA5HCUFk3jlDyOINm17-hRgwnWu1NeU9-90ysm0xo&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{3E79E060-0B0D-4BCD-98A1-CECB0A510CBD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS2tRS7-PYI7sQqXAD-KChfmABtcEk8vqGJwCRL7viuKMjZt3g&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{55A4B065-C960-4063-B459-1AEDF2188C31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://4.bp.blogspot.com/-3tsEWmRRoNU/V4SA8wBDWvI/AAAAAAAA8Os/1BP-7kXsCe8vEj547VPspqbgO_hz5WgfwCLcB/s180-c/game_yuusya_woman.png</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{BAD6356F-9D88-4ADB-B9CB-38C03386B82A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSBUS58cj4BguVNttiZOmjxd9Kqaaf-y0B4q2lEjnxTHS2eco1p&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{BBDA71C7-09F0-405A-AAF9-C4D687F19B1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTtCgYhzzs2mnW1g1lZrtdMeGaWI0PI8jeAcvEf0MQVHsB9xE4&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{9609B342-1CF3-466F-B743-98E43CA463C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRtSRbk3F711xGC_yqKNsL0b8Pse3RbD1SvTW94xIu2pRDOhOZc&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{8CCBF45D-D395-4B70-B0E6-DA1BF55F58A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSReZ7SfrkeNOSz3S7Bd703jeXRnxC6BTyTZVsVUZvjvUgmAgA&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{A73D159D-8615-4437-A3A8-CCF1AE93B9AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://1.bp.blogspot.com/-eJFDEryKn38/XTPoH62lA-I/AAAAAAABTwM/pImOj_yI6kIO1hHeRxH_WFfPSfwN8zqUgCLcBGAs/s800/fantasy_maou_devil.png</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{CC556D81-1C04-4C81-9260-5A3F06851BAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>http://3.bp.blogspot.com/-la0WXIEj3Og/VA7mbmBn1UI/AAAAAAAAmQY/FlJynwAD9ro/s180-c/yuusya_game.png</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{05E627CF-BB2A-4F2D-8937-8702724A4F35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://4.bp.blogspot.com/-3tsEWmRRoNU/V4SA8wBDWvI/AAAAAAAA8Os/1BP-7kXsCe8vEj547VPspqbgO_hz5WgfwCLcB/s180-c/game_yuusya_woman.png</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>モンスター</t>
     <phoneticPr fontId="18"/>
@@ -418,6 +616,161 @@
     </rPh>
     <rPh sb="1" eb="4">
       <t>シュツゲンリツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>出現率(%)</t>
+    <rPh sb="0" eb="3">
+      <t>シュツゲンリツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Exスライム</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>オオカミ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>罠配置</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ランク6以上は合成のみ</t>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゴウセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>オーク</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>デーモン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔王</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>勇者(女性)</t>
+    <rPh sb="0" eb="2">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>勇者(男性)</t>
+    <rPh sb="0" eb="2">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>冒険者</t>
+    <rPh sb="0" eb="3">
+      <t>ボウケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>荒くれ者</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>人</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ランク6以上は条件を満たすと出現．1度条件を満たすと1度出現など</t>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔法使い</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>バーサーカー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>まずランクを決めてから同ランクの中での均等にランダムにする</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キントウ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1080,6 +1433,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1379,14 +1736,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="27" max="29" width="14.5" customWidth="1"/>
     <col min="31" max="31" width="15.875" customWidth="1"/>
     <col min="33" max="33" width="16.875" customWidth="1"/>
@@ -1417,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1536,9 +1894,15 @@
       <c r="L3">
         <v>1</v>
       </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f xml:space="preserve"> IF(O3=sub!$D$3,sub!$E$3, IF(O3=sub!$D$4, sub!$E$4, IF(O3=sub!$D$5, sub!$E$5, IF(O3=sub!$D$6, sub!$E$6, IF(O3=sub!$D$7, sub!$E$7,0 )))))</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="s">
         <v>18</v>
@@ -1548,9 +1912,25 @@
       </c>
     </row>
     <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4">
         <f xml:space="preserve"> IF(B4=sub!$A$3,sub!$B$3, IF(B4=sub!$A$4, sub!$B$4, IF(B4=sub!$A$5, sub!$B$5, IF(B4=sub!$A$6, sub!$B$6, IF(B4=sub!$A$7, sub!$B$7,0 )))))</f>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f xml:space="preserve"> IF(O4=sub!$D$3,sub!$E$3, IF(O4=sub!$D$4, sub!$E$4, IF(O4=sub!$D$5, sub!$E$5, IF(O4=sub!$D$6, sub!$E$6, IF(O4=sub!$D$7, sub!$E$7,0 )))))</f>
+        <v>25</v>
       </c>
       <c r="AA4" t="s">
         <v>19</v>
@@ -1560,9 +1940,31 @@
       </c>
     </row>
     <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="C5">
         <f xml:space="preserve"> IF(B5=sub!$A$3,sub!$B$3, IF(B5=sub!$A$4, sub!$B$4, IF(B5=sub!$A$5, sub!$B$5, IF(B5=sub!$A$6, sub!$B$6, IF(B5=sub!$A$7, sub!$B$7,0 )))))</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <f xml:space="preserve"> IF(O5=sub!$D$3,sub!$E$3, IF(O5=sub!$D$4, sub!$E$4, IF(O5=sub!$D$5, sub!$E$5, IF(O5=sub!$D$6, sub!$E$6, IF(O5=sub!$D$7, sub!$E$7,0 )))))</f>
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
       </c>
       <c r="AA5" t="s">
         <v>20</v>
@@ -1572,27 +1974,98 @@
       </c>
     </row>
     <row r="6" spans="1:33">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
       <c r="C6">
         <f xml:space="preserve"> IF(B6=sub!$A$3,sub!$B$3, IF(B6=sub!$A$4, sub!$B$4, IF(B6=sub!$A$5, sub!$B$5, IF(B6=sub!$A$6, sub!$B$6, IF(B6=sub!$A$7, sub!$B$7,0 )))))</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f xml:space="preserve"> IF(O6=sub!$D$3,sub!$E$3, IF(O6=sub!$D$4, sub!$E$4, IF(O6=sub!$D$5, sub!$E$5, IF(O6=sub!$D$6, sub!$E$6, IF(O6=sub!$D$7, sub!$E$7,0 )))))</f>
+        <v>7</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>36</v>
       </c>
       <c r="AE6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
       <c r="C7">
         <f xml:space="preserve"> IF(B7=sub!$A$3,sub!$B$3, IF(B7=sub!$A$4, sub!$B$4, IF(B7=sub!$A$5, sub!$B$5, IF(B7=sub!$A$6, sub!$B$6, IF(B7=sub!$A$7, sub!$B$7,0 )))))</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <f xml:space="preserve"> IF(O7=sub!$D$3,sub!$E$3, IF(O7=sub!$D$4, sub!$E$4, IF(O7=sub!$D$5, sub!$E$5, IF(O7=sub!$D$6, sub!$E$6, IF(O7=sub!$D$7, sub!$E$7,0 )))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:33">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
       <c r="C8">
         <f xml:space="preserve"> IF(B8=sub!$A$3,sub!$B$3, IF(B8=sub!$A$4, sub!$B$4, IF(B8=sub!$A$5, sub!$B$5, IF(B8=sub!$A$6, sub!$B$6, IF(B8=sub!$A$7, sub!$B$7,0 )))))</f>
         <v>0</v>
       </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <f xml:space="preserve"> IF(O8=sub!$D$3,sub!$E$3, IF(O8=sub!$D$4, sub!$E$4, IF(O8=sub!$D$5, sub!$E$5, IF(O8=sub!$D$6, sub!$E$6, IF(O8=sub!$D$7, sub!$E$7,0 )))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <f xml:space="preserve"> IF(O9=sub!$D$3,sub!$E$3, IF(O9=sub!$D$4, sub!$E$4, IF(O9=sub!$D$5, sub!$E$5, IF(O9=sub!$D$6, sub!$E$6, IF(O9=sub!$D$7, sub!$E$7,0 )))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:Y9">
+    <sortCondition ref="O3:O9"/>
+  </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1602,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAD8FDD-F3AD-4BD6-8CF0-799C63DCF59F}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1712,6 +2185,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test..xlsx
+++ b/test..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\pr0gr\StudioProjects\MyDungeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1EA704-4A95-4E2C-9FEC-8635AA62F38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F97803-788A-4258-ADF5-0000DEBEA5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" tabRatio="259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,6 +133,115 @@
         </r>
       </text>
     </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{608BC55D-E7B3-4BC1-902D-23F3791166CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>体力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{9EFF6F38-5D92-4868-9CCF-9C990623A5BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>魔法・スキル発動時に消費</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{BDEA9B1D-BD47-4EAA-9BCB-F5790FBC8C89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>物理攻撃力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{76F03952-2003-4549-B021-F13BF4F157C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>防御力
+物理防御力はこれにSTRで補正．
+魔法防御力はこれにINTで補正．</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{DC04E70A-E6E2-4DF6-A022-53DA0314FCC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>命中率．
+プレイヤーでは生産に影響</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{B506B9D7-6575-4606-B4F3-D0B5CF2BFA99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>回避率．
+全ての攻撃よけることも可能．</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{73A41B4C-FD57-4F82-AEE7-0DB001A1AB47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>魔法攻撃力</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
@@ -208,6 +317,117 @@
         </r>
       </text>
     </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{830A0B5F-C74F-44C4-A920-A9C67727834A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>体力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{BB52FFA5-DDB9-47A5-9DFE-2DC2E616D589}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>魔法・スキル発動時に消費</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{4D815E84-1AE0-42B4-8139-F06A498F17A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>物理攻撃力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{FADCD775-F984-4C7C-ADB6-D393F3F1ECA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>防御力
+物理防御力はこれにSTRで補正．
+魔法防御力はこれにINTで補正．</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{2C59FB36-ADE7-45EB-8CC5-106648AD2D1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>命中率．
+罠回避率．
+プレイヤーでは生産に影響</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{C35ABFB1-6945-45F2-8356-13F881BC7E76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>回避率．
+帰還時の銭湯回避率
+全ての攻撃よけることも可能．</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{0605BED0-2C56-4DC5-ADDA-652D93548618}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>魔法攻撃力</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{5DDD3D89-9369-4B71-8504-2E0F6A24727C}">
       <text>
         <r>
@@ -400,6 +620,23 @@
             <charset val="128"/>
           </rPr>
           <t>https://4.bp.blogspot.com/-3tsEWmRRoNU/V4SA8wBDWvI/AAAAAAAA8Os/1BP-7kXsCe8vEj547VPspqbgO_hz5WgfwCLcB/s180-c/game_yuusya_woman.png</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{345BB5DB-E220-435A-B710-6AFE6AD8A684}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>脅威度100％で出現．基本的に確負け
+一応倒せるようにしておこう．
+実質的に倒すの不可能でもいい．</t>
         </r>
       </text>
     </comment>
@@ -408,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>モンスター</t>
     <phoneticPr fontId="18"/>
@@ -452,14 +689,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>DEX</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>AGI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -772,6 +1001,150 @@
     <rPh sb="19" eb="21">
       <t>キントウ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>※召喚にはデーモン1・Exスライム1が必要</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>脅威度が一定以上の間出現．脅威度の決め方は未定</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>初めのうちは高ランクが出現しないようにする</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>低ランクは自動出現できるものをつくる</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>脅威度はモンスターが倒されなさ過ぎたら上昇していく．よっぽどつよくなればそういうプレイもありかもやけど．脅威度が上昇したらやばいことになるってものを作ろう．とりあえずは高すぎる壁って事で良いけど，倒せるようにはしといて，その後も何か作っていこう</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRvHG0T4VfHOA1rcSf2qxUd26x0r4nQ4Xi7OTPfzoW0QPFspvdhgOv_qUZR&amp;s</t>
+  </si>
+  <si>
+    <t>DEX(%)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AGI(%)</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1736,15 +2109,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
     <col min="27" max="29" width="14.5" customWidth="1"/>
     <col min="31" max="31" width="15.875" customWidth="1"/>
     <col min="33" max="33" width="16.875" customWidth="1"/>
@@ -1755,16 +2130,16 @@
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" t="s">
         <v>15</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -1775,13 +2150,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1796,13 +2171,13 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
       </c>
       <c r="N2" t="s">
         <v>1</v>
@@ -1811,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="s">
         <v>3</v>
@@ -1832,43 +2207,43 @@
         <v>8</v>
       </c>
       <c r="W2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" t="s">
         <v>9</v>
       </c>
-      <c r="X2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>11</v>
-      </c>
       <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>27</v>
-      </c>
       <c r="AE2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" t="s">
         <v>25</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
         <f xml:space="preserve"> IF(B3=sub!$A$3,sub!$B$3, IF(B3=sub!$A$4, sub!$B$4, IF(B3=sub!$A$5, sub!$B$5, IF(B3=sub!$A$6, sub!$B$6, IF(B3=sub!$A$7, sub!$B$7,0 )))))</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1886,180 +2261,534 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
         <f xml:space="preserve"> IF(O3=sub!$D$3,sub!$E$3, IF(O3=sub!$D$4, sub!$E$4, IF(O3=sub!$D$5, sub!$E$5, IF(O3=sub!$D$6, sub!$E$6, IF(O3=sub!$D$7, sub!$E$7,0 )))))</f>
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>60</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
       </c>
       <c r="AA3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
         <f xml:space="preserve"> IF(B4=sub!$A$3,sub!$B$3, IF(B4=sub!$A$4, sub!$B$4, IF(B4=sub!$A$5, sub!$B$5, IF(B4=sub!$A$6, sub!$B$6, IF(B4=sub!$A$7, sub!$B$7,0 )))))</f>
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4">
         <f xml:space="preserve"> IF(O4=sub!$D$3,sub!$E$3, IF(O4=sub!$D$4, sub!$E$4, IF(O4=sub!$D$5, sub!$E$5, IF(O4=sub!$D$6, sub!$E$6, IF(O4=sub!$D$7, sub!$E$7,0 )))))</f>
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>70</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
         <f xml:space="preserve"> IF(B5=sub!$A$3,sub!$B$3, IF(B5=sub!$A$4, sub!$B$4, IF(B5=sub!$A$5, sub!$B$5, IF(B5=sub!$A$6, sub!$B$6, IF(B5=sub!$A$7, sub!$B$7,0 )))))</f>
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2500</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5">
         <f xml:space="preserve"> IF(O5=sub!$D$3,sub!$E$3, IF(O5=sub!$D$4, sub!$E$4, IF(O5=sub!$D$5, sub!$E$5, IF(O5=sub!$D$6, sub!$E$6, IF(O5=sub!$D$7, sub!$E$7,0 )))))</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5">
+        <v>60</v>
+      </c>
+      <c r="T5">
         <v>10</v>
       </c>
-      <c r="R5">
+      <c r="U5">
+        <v>30</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+      <c r="W5">
+        <v>70</v>
+      </c>
+      <c r="X5">
         <v>10</v>
       </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
       <c r="AA5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
         <f xml:space="preserve"> IF(B6=sub!$A$3,sub!$B$3, IF(B6=sub!$A$4, sub!$B$4, IF(B6=sub!$A$5, sub!$B$5, IF(B6=sub!$A$6, sub!$B$6, IF(B6=sub!$A$7, sub!$B$7,0 )))))</f>
-        <v>7</v>
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6">
         <f xml:space="preserve"> IF(O6=sub!$D$3,sub!$E$3, IF(O6=sub!$D$4, sub!$E$4, IF(O6=sub!$D$5, sub!$E$5, IF(O6=sub!$D$6, sub!$E$6, IF(O6=sub!$D$7, sub!$E$7,0 )))))</f>
-        <v>7</v>
+        <v>1.5</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>1000</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6">
+        <v>100</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>80</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>50</v>
       </c>
       <c r="AA6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
         <f xml:space="preserve"> IF(B7=sub!$A$3,sub!$B$3, IF(B7=sub!$A$4, sub!$B$4, IF(B7=sub!$A$5, sub!$B$5, IF(B7=sub!$A$6, sub!$B$6, IF(B7=sub!$A$7, sub!$B$7,0 )))))</f>
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>100000</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7">
         <f xml:space="preserve"> IF(O7=sub!$D$3,sub!$E$3, IF(O7=sub!$D$4, sub!$E$4, IF(O7=sub!$D$5, sub!$E$5, IF(O7=sub!$D$6, sub!$E$6, IF(O7=sub!$D$7, sub!$E$7,0 )))))</f>
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>2000</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>200</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <v>70</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8">
-        <f xml:space="preserve"> IF(B8=sub!$A$3,sub!$B$3, IF(B8=sub!$A$4, sub!$B$4, IF(B8=sub!$A$5, sub!$B$5, IF(B8=sub!$A$6, sub!$B$6, IF(B8=sub!$A$7, sub!$B$7,0 )))))</f>
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>1000000</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>200</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
-      <c r="P8">
-        <f xml:space="preserve"> IF(O8=sub!$D$3,sub!$E$3, IF(O8=sub!$D$4, sub!$E$4, IF(O8=sub!$D$5, sub!$E$5, IF(O8=sub!$D$6, sub!$E$6, IF(O8=sub!$D$7, sub!$E$7,0 )))))</f>
-        <v>0</v>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8">
+        <v>10000</v>
+      </c>
+      <c r="R8">
+        <v>10000</v>
+      </c>
+      <c r="S8">
+        <v>500</v>
+      </c>
+      <c r="T8">
+        <v>200</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8">
+        <v>100</v>
+      </c>
+      <c r="W8">
+        <v>95</v>
+      </c>
+      <c r="X8">
+        <v>30</v>
+      </c>
+      <c r="Y8">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="N9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O9">
         <v>6</v>
       </c>
-      <c r="P9">
-        <f xml:space="preserve"> IF(O9=sub!$D$3,sub!$E$3, IF(O9=sub!$D$4, sub!$E$4, IF(O9=sub!$D$5, sub!$E$5, IF(O9=sub!$D$6, sub!$E$6, IF(O9=sub!$D$7, sub!$E$7,0 )))))</f>
-        <v>0</v>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9">
+        <v>10000</v>
+      </c>
+      <c r="R9">
+        <v>10000</v>
+      </c>
+      <c r="S9">
+        <v>500</v>
+      </c>
+      <c r="T9">
+        <v>200</v>
+      </c>
+      <c r="U9">
+        <v>100</v>
+      </c>
+      <c r="V9">
+        <v>100</v>
+      </c>
+      <c r="W9">
+        <v>95</v>
+      </c>
+      <c r="X9">
+        <v>30</v>
+      </c>
+      <c r="Y9">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" t="s">
-        <v>49</v>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="B13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2078,31 +2807,31 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2110,13 +2839,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2124,13 +2853,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2138,13 +2867,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2152,13 +2881,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2166,13 +2895,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2187,10 +2916,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/test..xlsx
+++ b/test..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\pr0gr\StudioProjects\MyDungeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F97803-788A-4258-ADF5-0000DEBEA5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDDA650-DA61-48B9-BC75-DAAF2BECDA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" tabRatio="259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,6 +488,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{58ED9639-E7B7-4BD8-8456-3B66F557D159}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ベース
+ダンジョンの費用は階層（作成DP）によって変化する</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A5" authorId="0" shapeId="0" xr:uid="{3E79E060-0B0D-4BCD-98A1-CECB0A510CBD}">
       <text>
         <r>
@@ -645,7 +661,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>モンスター</t>
     <phoneticPr fontId="18"/>
@@ -1145,6 +1161,59 @@
   </si>
   <si>
     <t>AGI(%)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>とりあえずは無し</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>予定としては町で冒険者ギルドで稼いで買う</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ボウケンシャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カセ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1階層</t>
+    <rPh sb="1" eb="3">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>この辺は軽く動的なレイアウト見てみてからにする</t>
+    <rPh sb="2" eb="3">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1746,9 +1815,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2109,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2125,7 +2197,7 @@
     <col min="33" max="33" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2138,11 +2210,11 @@
       <c r="AE1" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2233,8 +2305,17 @@
       <c r="AG2" t="s">
         <v>25</v>
       </c>
+      <c r="AI2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2307,13 +2388,16 @@
         <v>2</v>
       </c>
       <c r="AA3" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="s">
         <v>19</v>
       </c>
+      <c r="AI3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2386,13 +2470,19 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="AE4" t="s">
         <v>20</v>
       </c>
+      <c r="AI4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2465,13 +2555,13 @@
         <v>10</v>
       </c>
       <c r="AA5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2544,13 +2634,13 @@
         <v>50</v>
       </c>
       <c r="AA6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2622,8 +2712,11 @@
       <c r="Y7">
         <v>10</v>
       </c>
+      <c r="AA7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2693,8 +2786,11 @@
       <c r="Y8">
         <v>100</v>
       </c>
+      <c r="AA8" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:37">
       <c r="N9" t="s">
         <v>39</v>
       </c>
@@ -2732,7 +2828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:37">
       <c r="M10" t="s">
         <v>55</v>
       </c>
@@ -2773,7 +2869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:37">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -2781,12 +2877,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:37">
       <c r="B12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:37">
       <c r="B13" t="s">
         <v>52</v>
       </c>

--- a/test..xlsx
+++ b/test..xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\pr0gr\StudioProjects\MyDungeon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\pr0gr\StudioProjects\MyDungeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDDA650-DA61-48B9-BC75-DAAF2BECDA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7523E20-B2C6-4E1B-B271-5CBD30B70B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" tabRatio="259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" tabRatio="259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -530,129 +530,112 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
+          <t>https://2.bp.blogspot.com/-Dx-YVzvg-qs/WNoVGy1QgTI/AAAAAAABC4Y/fQv9XRc6s74EMf1uXbuX1uBxd-PoT-udACLcB/s800/job_tanken_koukogaku2.png</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{BAD6356F-9D88-4ADB-B9CB-38C03386B82A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSBUS58cj4BguVNttiZOmjxd9Kqaaf-y0B4q2lEjnxTHS2eco1p&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{BBDA71C7-09F0-405A-AAF9-C4D687F19B1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTtCgYhzzs2mnW1g1lZrtdMeGaWI0PI8jeAcvEf0MQVHsB9xE4&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{9609B342-1CF3-466F-B743-98E43CA463C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRtSRbk3F711xGC_yqKNsL0b8Pse3RbD1SvTW94xIu2pRDOhOZc&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{8CCBF45D-D395-4B70-B0E6-DA1BF55F58A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSReZ7SfrkeNOSz3S7Bd703jeXRnxC6BTyTZVsVUZvjvUgmAgA&amp;s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{A73D159D-8615-4437-A3A8-CCF1AE93B9AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://1.bp.blogspot.com/-eJFDEryKn38/XTPoH62lA-I/AAAAAAABTwM/pImOj_yI6kIO1hHeRxH_WFfPSfwN8zqUgCLcBGAs/s800/fantasy_maou_devil.png</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{05E627CF-BB2A-4F2D-8937-8702724A4F35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
           <t>https://4.bp.blogspot.com/-3tsEWmRRoNU/V4SA8wBDWvI/AAAAAAAA8Os/1BP-7kXsCe8vEj547VPspqbgO_hz5WgfwCLcB/s180-c/game_yuusya_woman.png</t>
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{BAD6356F-9D88-4ADB-B9CB-38C03386B82A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSBUS58cj4BguVNttiZOmjxd9Kqaaf-y0B4q2lEjnxTHS2eco1p&amp;s</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{BBDA71C7-09F0-405A-AAF9-C4D687F19B1B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTtCgYhzzs2mnW1g1lZrtdMeGaWI0PI8jeAcvEf0MQVHsB9xE4&amp;s</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{9609B342-1CF3-466F-B743-98E43CA463C3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRtSRbk3F711xGC_yqKNsL0b8Pse3RbD1SvTW94xIu2pRDOhOZc&amp;s</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{8CCBF45D-D395-4B70-B0E6-DA1BF55F58A6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSReZ7SfrkeNOSz3S7Bd703jeXRnxC6BTyTZVsVUZvjvUgmAgA&amp;s</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{A73D159D-8615-4437-A3A8-CCF1AE93B9AD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>https://1.bp.blogspot.com/-eJFDEryKn38/XTPoH62lA-I/AAAAAAABTwM/pImOj_yI6kIO1hHeRxH_WFfPSfwN8zqUgCLcBGAs/s800/fantasy_maou_devil.png</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{CC556D81-1C04-4C81-9260-5A3F06851BAD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>http://3.bp.blogspot.com/-la0WXIEj3Og/VA7mbmBn1UI/AAAAAAAAmQY/FlJynwAD9ro/s180-c/yuusya_game.png</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{05E627CF-BB2A-4F2D-8937-8702724A4F35}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>https://4.bp.blogspot.com/-3tsEWmRRoNU/V4SA8wBDWvI/AAAAAAAA8Os/1BP-7kXsCe8vEj547VPspqbgO_hz5WgfwCLcB/s180-c/game_yuusya_woman.png</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{345BB5DB-E220-435A-B710-6AFE6AD8A684}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>脅威度100％で出現．基本的に確負け
-一応倒せるようにしておこう．
-実質的に倒すの不可能でもいい．</t>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{345BB5DB-E220-435A-B710-6AFE6AD8A684}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRvHG0T4VfHOA1rcSf2qxUd26x0r4nQ4Xi7OTPfzoW0QPFspvdhgOv_qUZR&amp;s</t>
         </r>
       </text>
     </comment>
@@ -661,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>モンスター</t>
     <phoneticPr fontId="18"/>
@@ -872,10 +855,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Exスライム</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>オオカミ</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -915,26 +894,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>勇者(女性)</t>
-    <rPh sb="0" eb="2">
-      <t>ユウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>勇者(男性)</t>
-    <rPh sb="0" eb="2">
-      <t>ユウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>冒険者</t>
     <rPh sb="0" eb="3">
       <t>ボウケンシャ</t>
@@ -1061,19 +1020,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>初めのうちは高ランクが出現しないようにする</t>
-    <rPh sb="0" eb="1">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>低ランクは自動出現できるものをつくる</t>
     <rPh sb="0" eb="1">
       <t>テイ</t>
@@ -1153,9 +1099,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRvHG0T4VfHOA1rcSf2qxUd26x0r4nQ4Xi7OTPfzoW0QPFspvdhgOv_qUZR&amp;s</t>
-  </si>
-  <si>
     <t>DEX(%)</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1213,6 +1156,70 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>悪いスライム</t>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>初めのうち（脅威度が低い）は高ランクが出現しないようにする（脅威度は％）</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>脅威度100％時に出現"ほぼ"確定負け</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>勇者</t>
+    <rPh sb="0" eb="2">
+      <t>ユウシャ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1878,10 +1885,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2183,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2243,10 +2246,10 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -2279,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="W2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="s">
         <v>9</v>
@@ -2351,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -2388,18 +2391,18 @@
         <v>2</v>
       </c>
       <c r="AA3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE3" t="s">
         <v>19</v>
       </c>
       <c r="AI3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2433,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -2473,18 +2476,18 @@
         <v>16</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE4" t="s">
         <v>20</v>
       </c>
       <c r="AI4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2518,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -2563,7 +2566,7 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2597,7 +2600,7 @@
         <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O6">
         <v>4</v>
@@ -2642,7 +2645,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2676,7 +2679,7 @@
         <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -2713,18 +2716,18 @@
         <v>10</v>
       </c>
       <c r="AA7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>1000000</v>
@@ -2751,13 +2754,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>10000</v>
@@ -2787,104 +2790,65 @@
         <v>100</v>
       </c>
       <c r="AA8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:37">
       <c r="N9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9">
-        <v>10000</v>
-      </c>
-      <c r="R9">
-        <v>10000</v>
-      </c>
-      <c r="S9">
-        <v>500</v>
-      </c>
-      <c r="T9">
-        <v>200</v>
-      </c>
-      <c r="U9">
-        <v>100</v>
-      </c>
-      <c r="V9">
-        <v>100</v>
-      </c>
-      <c r="W9">
-        <v>95</v>
-      </c>
-      <c r="X9">
-        <v>30</v>
-      </c>
-      <c r="Y9">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="M10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" t="s">
-        <v>54</v>
-      </c>
       <c r="P10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>54</v>
-      </c>
-      <c r="R10" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10" t="s">
-        <v>54</v>
-      </c>
-      <c r="U10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" t="s">
-        <v>54</v>
-      </c>
-      <c r="W10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:37">
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:37">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:37">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3012,14 +2976,15 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test..xlsx
+++ b/test..xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\pr0gr\StudioProjects\MyDungeon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\pr0gr\StudioProjects\MyDungeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7523E20-B2C6-4E1B-B271-5CBD30B70B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDDA650-DA61-48B9-BC75-DAAF2BECDA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" tabRatio="259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" tabRatio="259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>https://2.bp.blogspot.com/-Dx-YVzvg-qs/WNoVGy1QgTI/AAAAAAABC4Y/fQv9XRc6s74EMf1uXbuX1uBxd-PoT-udACLcB/s800/job_tanken_koukogaku2.png</t>
+          <t>https://4.bp.blogspot.com/-3tsEWmRRoNU/V4SA8wBDWvI/AAAAAAAA8Os/1BP-7kXsCe8vEj547VPspqbgO_hz5WgfwCLcB/s180-c/game_yuusya_woman.png</t>
         </r>
       </text>
     </comment>
@@ -609,7 +609,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{05E627CF-BB2A-4F2D-8937-8702724A4F35}">
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{CC556D81-1C04-4C81-9260-5A3F06851BAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>http://3.bp.blogspot.com/-la0WXIEj3Og/VA7mbmBn1UI/AAAAAAAAmQY/FlJynwAD9ro/s180-c/yuusya_game.png</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{05E627CF-BB2A-4F2D-8937-8702724A4F35}">
       <text>
         <r>
           <rPr>
@@ -624,18 +639,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{345BB5DB-E220-435A-B710-6AFE6AD8A684}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRvHG0T4VfHOA1rcSf2qxUd26x0r4nQ4Xi7OTPfzoW0QPFspvdhgOv_qUZR&amp;s</t>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{345BB5DB-E220-435A-B710-6AFE6AD8A684}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>脅威度100％で出現．基本的に確負け
+一応倒せるようにしておこう．
+実質的に倒すの不可能でもいい．</t>
         </r>
       </text>
     </comment>
@@ -644,7 +661,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>モンスター</t>
     <phoneticPr fontId="18"/>
@@ -855,6 +872,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Exスライム</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>オオカミ</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -894,6 +915,26 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>勇者(女性)</t>
+    <rPh sb="0" eb="2">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>勇者(男性)</t>
+    <rPh sb="0" eb="2">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>冒険者</t>
     <rPh sb="0" eb="3">
       <t>ボウケンシャ</t>
@@ -1020,6 +1061,19 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>初めのうちは高ランクが出現しないようにする</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>低ランクは自動出現できるものをつくる</t>
     <rPh sb="0" eb="1">
       <t>テイ</t>
@@ -1099,6 +1153,9 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRvHG0T4VfHOA1rcSf2qxUd26x0r4nQ4Xi7OTPfzoW0QPFspvdhgOv_qUZR&amp;s</t>
+  </si>
+  <si>
     <t>DEX(%)</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1156,70 +1213,6 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>悪いスライム</t>
-    <rPh sb="0" eb="1">
-      <t>ワル</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>初めのうち（脅威度が低い）は高ランクが出現しないようにする（脅威度は％）</t>
-    <rPh sb="0" eb="1">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キョウイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キョウイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>脅威度100％時に出現"ほぼ"確定負け</t>
-    <rPh sb="0" eb="2">
-      <t>キョウイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>勇者</t>
-    <rPh sb="0" eb="2">
-      <t>ユウシャ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1885,6 +1878,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2186,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2246,10 +2243,10 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -2282,10 +2279,10 @@
         <v>8</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Y2" t="s">
         <v>9</v>
@@ -2354,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -2391,18 +2388,18 @@
         <v>2</v>
       </c>
       <c r="AA3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="s">
         <v>19</v>
       </c>
       <c r="AI3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2436,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -2476,18 +2473,18 @@
         <v>16</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AE4" t="s">
         <v>20</v>
       </c>
       <c r="AI4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2521,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -2566,7 +2563,7 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2600,7 +2597,7 @@
         <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O6">
         <v>4</v>
@@ -2645,7 +2642,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2679,7 +2676,7 @@
         <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -2716,18 +2713,18 @@
         <v>10</v>
       </c>
       <c r="AA7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>1000000</v>
@@ -2754,13 +2751,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>10000</v>
@@ -2790,65 +2787,104 @@
         <v>100</v>
       </c>
       <c r="AA8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:37">
       <c r="N9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
         <v>49</v>
       </c>
-      <c r="O9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" t="s">
-        <v>50</v>
-      </c>
-      <c r="U9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" t="s">
-        <v>50</v>
-      </c>
-      <c r="W9" t="s">
-        <v>50</v>
-      </c>
-      <c r="X9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>50</v>
+      <c r="Q9">
+        <v>10000</v>
+      </c>
+      <c r="R9">
+        <v>10000</v>
+      </c>
+      <c r="S9">
+        <v>500</v>
+      </c>
+      <c r="T9">
+        <v>200</v>
+      </c>
+      <c r="U9">
+        <v>100</v>
+      </c>
+      <c r="V9">
+        <v>100</v>
+      </c>
+      <c r="W9">
+        <v>95</v>
+      </c>
+      <c r="X9">
+        <v>30</v>
+      </c>
+      <c r="Y9">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:37">
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
       <c r="P10" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:37">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:37">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:37">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2976,15 +3012,14 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>